--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -1778,9 +1778,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
@@ -593,7 +593,7 @@
   <si>
     <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.
 通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
-【JP-CORE】　completed or stopped に限定される。</t>
+【JP-Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
@@ -949,7 +949,7 @@
 投与を受ける患者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="516">
   <si>
     <t>Property</t>
   </si>
@@ -593,7 +593,7 @@
   <si>
     <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.
 通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
-【JP-Core仕様】　completed or stopped に限定される。</t>
+【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -605,7 +605,7 @@
     <t>患者への投与状況</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1492,6 +1492,137 @@
   </si>
   <si>
     <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -1843,7 +1974,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1876,7 +2007,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -9205,17 +9336,15 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>461</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>462</v>
+        <v>225</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9264,7 +9393,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>460</v>
+        <v>227</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9276,19 +9405,19 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>465</v>
+        <v>228</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9296,11 +9425,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9319,16 +9448,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>468</v>
+        <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>469</v>
+        <v>230</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
+        <v>231</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>471</v>
+        <v>159</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9366,19 +9495,19 @@
         <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>467</v>
+        <v>233</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9390,21 +9519,823 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AJ67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN66" t="s" s="2">
+      <c r="L68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Q68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X71" s="2"/>
+      <c r="Y71" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="517">
   <si>
     <t>Property</t>
   </si>
@@ -721,6 +721,9 @@
   </si>
   <si>
     <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
@@ -4481,7 +4484,7 @@
         <v>223</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4557,10 +4560,10 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4611,7 +4614,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4629,7 +4632,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4643,7 +4646,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4669,10 +4672,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>159</v>
@@ -4716,7 +4719,7 @@
         <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
@@ -4725,7 +4728,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4743,7 +4746,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4757,7 +4760,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4780,19 +4783,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4841,7 +4844,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4859,13 +4862,13 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4873,7 +4876,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4899,10 +4902,10 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4953,7 +4956,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4971,7 +4974,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4985,7 +4988,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5011,10 +5014,10 @@
         <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>159</v>
@@ -5058,7 +5061,7 @@
         <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
@@ -5067,7 +5070,7 @@
         <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5085,7 +5088,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5099,7 +5102,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5125,16 +5128,16 @@
         <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5183,7 +5186,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5201,13 +5204,13 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5215,7 +5218,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5241,13 +5244,13 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5297,7 +5300,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5315,13 +5318,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5329,7 +5332,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5355,14 +5358,14 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5411,7 +5414,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5429,13 +5432,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5443,7 +5446,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5469,14 +5472,14 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5525,7 +5528,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5543,13 +5546,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5557,7 +5560,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5580,19 +5583,19 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5641,7 +5644,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5659,13 +5662,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5673,7 +5676,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5699,16 +5702,16 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5757,7 +5760,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5775,13 +5778,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5792,7 +5795,7 @@
         <v>209</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
@@ -5814,7 +5817,7 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>211</v>
@@ -5905,7 +5908,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5928,16 +5931,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5987,7 +5990,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>86</v>
@@ -6002,16 +6005,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6019,7 +6022,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6045,10 +6048,10 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6099,7 +6102,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6117,7 +6120,7 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6131,7 +6134,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6157,10 +6160,10 @@
         <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>159</v>
@@ -6204,7 +6207,7 @@
         <v>134</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>77</v>
@@ -6213,7 +6216,7 @@
         <v>135</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6231,7 +6234,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6245,7 +6248,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6271,13 +6274,13 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6327,7 +6330,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6336,7 +6339,7 @@
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
@@ -6359,7 +6362,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6385,13 +6388,13 @@
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6417,13 +6420,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6441,7 +6444,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6473,7 +6476,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6499,13 +6502,13 @@
         <v>163</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6555,7 +6558,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6573,7 +6576,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6587,7 +6590,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6613,13 +6616,13 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6669,7 +6672,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6701,7 +6704,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6724,16 +6727,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6783,7 +6786,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6798,16 +6801,16 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6815,7 +6818,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6838,16 +6841,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6897,7 +6900,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6915,10 +6918,10 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6929,7 +6932,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6952,16 +6955,16 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7011,7 +7014,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>86</v>
@@ -7026,16 +7029,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7043,7 +7046,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7066,13 +7069,13 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7123,7 +7126,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7138,16 +7141,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7155,7 +7158,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7181,10 +7184,10 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7235,7 +7238,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7253,7 +7256,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7267,7 +7270,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7293,10 +7296,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>159</v>
@@ -7349,7 +7352,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7367,7 +7370,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7381,11 +7384,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7407,10 +7410,10 @@
         <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>159</v>
@@ -7465,7 +7468,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7497,7 +7500,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7523,10 +7526,10 @@
         <v>193</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7556,10 +7559,10 @@
         <v>197</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7577,7 +7580,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7592,10 +7595,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7609,7 +7612,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7632,13 +7635,13 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7689,7 +7692,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>86</v>
@@ -7704,10 +7707,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7721,7 +7724,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7747,10 +7750,10 @@
         <v>193</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7780,10 +7783,10 @@
         <v>197</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7801,7 +7804,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7816,16 +7819,16 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7833,7 +7836,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7856,16 +7859,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7915,7 +7918,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7930,24 +7933,24 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7970,19 +7973,19 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8031,7 +8034,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8046,16 +8049,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8063,7 +8066,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8086,16 +8089,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8145,7 +8148,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8163,13 +8166,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8177,7 +8180,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8200,16 +8203,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8259,7 +8262,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8274,10 +8277,10 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8291,7 +8294,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8314,13 +8317,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8371,7 +8374,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8383,13 +8386,13 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8403,7 +8406,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8429,10 +8432,10 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8483,7 +8486,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8501,7 +8504,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8515,7 +8518,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8541,10 +8544,10 @@
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>159</v>
@@ -8597,7 +8600,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8615,7 +8618,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8629,11 +8632,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8655,10 +8658,10 @@
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>159</v>
@@ -8713,7 +8716,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8745,7 +8748,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8771,10 +8774,10 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8825,7 +8828,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8843,7 +8846,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8857,7 +8860,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8883,13 +8886,13 @@
         <v>193</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8918,10 +8921,10 @@
         <v>197</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8939,7 +8942,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8957,13 +8960,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8971,7 +8974,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8997,10 +9000,10 @@
         <v>193</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>196</v>
@@ -9032,10 +9035,10 @@
         <v>197</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9053,7 +9056,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9071,13 +9074,13 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9085,7 +9088,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9111,13 +9114,13 @@
         <v>193</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9146,10 +9149,10 @@
         <v>197</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9167,7 +9170,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9185,13 +9188,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9199,7 +9202,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9222,16 +9225,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9281,7 +9284,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9299,13 +9302,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9313,7 +9316,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9339,10 +9342,10 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9393,7 +9396,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9411,7 +9414,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9425,7 +9428,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9451,10 +9454,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>159</v>
@@ -9498,7 +9501,7 @@
         <v>134</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
@@ -9507,7 +9510,7 @@
         <v>135</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9525,7 +9528,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9562,19 +9565,19 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9623,7 +9626,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9641,13 +9644,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9655,7 +9658,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9681,20 +9684,20 @@
         <v>106</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q68" t="s" s="2">
         <v>77</v>
@@ -9718,10 +9721,10 @@
         <v>185</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9739,7 +9742,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9757,13 +9760,13 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9771,7 +9774,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9797,14 +9800,14 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9853,7 +9856,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9871,13 +9874,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9885,7 +9888,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9911,14 +9914,14 @@
         <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9967,7 +9970,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9976,7 +9979,7 @@
         <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>98</v>
@@ -9985,13 +9988,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9999,7 +10002,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10025,16 +10028,16 @@
         <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10063,7 +10066,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10081,7 +10084,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10099,13 +10102,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10113,7 +10116,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10136,16 +10139,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10195,7 +10198,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10213,13 +10216,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10227,7 +10230,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10250,16 +10253,16 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10309,7 +10312,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10327,7 +10330,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="518">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -727,6 +727,10 @@
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4557,13 +4561,13 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4614,7 +4618,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4632,7 +4636,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4646,7 +4650,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4672,10 +4676,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>159</v>
@@ -4719,7 +4723,7 @@
         <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
@@ -4728,7 +4732,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4746,7 +4750,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4760,7 +4764,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4783,19 +4787,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4844,7 +4848,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4862,13 +4866,13 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4876,7 +4880,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4899,13 +4903,13 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4956,7 +4960,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4974,7 +4978,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4988,7 +4992,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5014,10 +5018,10 @@
         <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>159</v>
@@ -5061,7 +5065,7 @@
         <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
@@ -5070,7 +5074,7 @@
         <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5088,7 +5092,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5102,7 +5106,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5128,16 +5132,16 @@
         <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5186,7 +5190,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5204,13 +5208,13 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5218,7 +5222,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5241,16 +5245,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5300,7 +5304,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5318,13 +5322,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5332,7 +5336,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5358,14 +5362,14 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5414,7 +5418,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5432,13 +5436,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5446,7 +5450,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5469,17 +5473,17 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5528,7 +5532,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5546,13 +5550,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5560,7 +5564,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5583,19 +5587,19 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5644,7 +5648,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5662,13 +5666,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5676,7 +5680,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5699,19 +5703,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5760,7 +5764,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5778,13 +5782,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5795,7 +5799,7 @@
         <v>209</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
@@ -5817,7 +5821,7 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>211</v>
@@ -5908,7 +5912,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5931,16 +5935,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5990,7 +5994,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>86</v>
@@ -6005,16 +6009,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6022,7 +6026,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6045,13 +6049,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6102,7 +6106,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6120,7 +6124,7 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6134,7 +6138,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6160,10 +6164,10 @@
         <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>159</v>
@@ -6207,7 +6211,7 @@
         <v>134</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>77</v>
@@ -6216,7 +6220,7 @@
         <v>135</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6234,7 +6238,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6248,7 +6252,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6271,16 +6275,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6330,7 +6334,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6339,7 +6343,7 @@
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
@@ -6362,7 +6366,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6388,13 +6392,13 @@
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6420,13 +6424,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6444,7 +6448,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6476,7 +6480,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6502,13 +6506,13 @@
         <v>163</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6558,7 +6562,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6576,7 +6580,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6590,7 +6594,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6613,16 +6617,16 @@
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6672,7 +6676,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6704,7 +6708,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6727,16 +6731,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6786,7 +6790,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6801,16 +6805,16 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6818,7 +6822,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6841,16 +6845,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6900,7 +6904,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6918,10 +6922,10 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6932,7 +6936,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6955,16 +6959,16 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7014,7 +7018,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>86</v>
@@ -7029,16 +7033,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7046,7 +7050,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7069,13 +7073,13 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7126,7 +7130,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7141,16 +7145,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7158,7 +7162,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7181,13 +7185,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7238,7 +7242,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7256,7 +7260,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7270,7 +7274,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7296,10 +7300,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>159</v>
@@ -7352,7 +7356,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7370,7 +7374,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7384,11 +7388,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7410,10 +7414,10 @@
         <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>159</v>
@@ -7468,7 +7472,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7500,7 +7504,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7526,10 +7530,10 @@
         <v>193</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7559,10 +7563,10 @@
         <v>197</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7580,7 +7584,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7595,10 +7599,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7612,7 +7616,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7635,13 +7639,13 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7692,7 +7696,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>86</v>
@@ -7707,10 +7711,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7724,7 +7728,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7750,10 +7754,10 @@
         <v>193</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7783,10 +7787,10 @@
         <v>197</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7804,7 +7808,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7819,16 +7823,16 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7836,7 +7840,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7859,16 +7863,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7918,7 +7922,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7933,24 +7937,24 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7973,19 +7977,19 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8034,7 +8038,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8049,16 +8053,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8066,7 +8070,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8089,16 +8093,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8148,7 +8152,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8166,13 +8170,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8180,7 +8184,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8203,16 +8207,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8262,7 +8266,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8277,10 +8281,10 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8294,7 +8298,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8317,13 +8321,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8374,7 +8378,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8386,13 +8390,13 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8406,7 +8410,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8429,13 +8433,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8486,7 +8490,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8504,7 +8508,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8518,7 +8522,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8544,10 +8548,10 @@
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>159</v>
@@ -8600,7 +8604,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8618,7 +8622,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8632,11 +8636,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8658,10 +8662,10 @@
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>159</v>
@@ -8716,7 +8720,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8748,7 +8752,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8771,13 +8775,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8828,7 +8832,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8846,7 +8850,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8860,7 +8864,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8886,13 +8890,13 @@
         <v>193</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8921,10 +8925,10 @@
         <v>197</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8942,7 +8946,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8960,13 +8964,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8974,7 +8978,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9000,10 +9004,10 @@
         <v>193</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>196</v>
@@ -9035,10 +9039,10 @@
         <v>197</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9056,7 +9060,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9074,13 +9078,13 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9088,7 +9092,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9114,13 +9118,13 @@
         <v>193</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9149,10 +9153,10 @@
         <v>197</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9170,7 +9174,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9188,13 +9192,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9202,7 +9206,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9225,16 +9229,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9284,7 +9288,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9302,13 +9306,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9316,7 +9320,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9339,13 +9343,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9396,7 +9400,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9414,7 +9418,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9428,7 +9432,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9454,10 +9458,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>159</v>
@@ -9501,7 +9505,7 @@
         <v>134</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
@@ -9510,7 +9514,7 @@
         <v>135</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9528,7 +9532,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9542,7 +9546,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9565,19 +9569,19 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9626,7 +9630,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9644,13 +9648,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9658,7 +9662,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9684,20 +9688,20 @@
         <v>106</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q68" t="s" s="2">
         <v>77</v>
@@ -9721,10 +9725,10 @@
         <v>185</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9742,7 +9746,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9760,13 +9764,13 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9774,7 +9778,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9797,17 +9801,17 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9856,7 +9860,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9874,13 +9878,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9888,7 +9892,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9914,14 +9918,14 @@
         <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9970,7 +9974,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9979,7 +9983,7 @@
         <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>98</v>
@@ -9988,13 +9992,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10002,7 +10006,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10028,16 +10032,16 @@
         <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10066,7 +10070,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10084,7 +10088,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10102,13 +10106,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10116,7 +10120,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10139,16 +10143,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10198,7 +10202,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10216,13 +10220,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10230,7 +10234,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10253,16 +10257,16 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10312,7 +10316,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10330,7 +10334,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="463">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-03-16</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationAdministration</t>
+    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministrationBase</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -679,17 +679,22 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+    <t>What medication was supplied　医薬品</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
+投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
+ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
++なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
++ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
     <t>Codes identifying substance or product that can be administered.</t>
@@ -726,226 +731,10 @@
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
-    <t>MedicationAdministration.medication[x].id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-コード集で定義された医薬品コードへの情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
-</t>
-  </si>
-  <si>
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
@@ -972,106 +761,10 @@
     <t>PID-3-Patient ID List</t>
   </si>
   <si>
-    <t>MedicationAdministration.subject.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL　リテラル参照、相対、内部、または絶対URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.
-他のリソースが見つかった場合そのいリソース箇所への参照。参照は相対参照である場合がある。その場合、参照はサービスベースURLに相対的であるか、リソースが見つかった場所を解決する絶対URL。参照はバージョン固有である場合とそうでない場合がある。参照がFHIR　RESTfulサーバーを参照していない場合は、バージョン固有であると見なす必要がある。内部フラグメント参照（「＃」で始まる）は、含まれているリソースを参照する。</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")　参照リソースのタイプ</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).
-参照のターゲットの予想されるタイプ。 Reference.typeとReference.referenceの両方が入力され、Reference.referenceがFHIR URLである場合、両方が一貫している必要がある。
-タイプは、この参照が参照するタイプであるリソース定義の正規URLである。参照は、http：//hl7.org/fhir/StructureDefinition/に関連するURLとなる。例： 「患者」リソースの場合は、http://hl7.org/fhir/StructureDefinition/Patient　となる。絶対URLは、論理モデルでのみ許可される（また、論理モデルの参照でのみ使用でき、リソースでは使用できない）。</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known　リテラル参照（reference要素）で記述できない場合の論理ID参照</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.
-ターゲットリソースの識別子。これは、他のリソースを直接参照する方法がない場合に使用される。これは、リソースが表すエンティティがFHIRサーバーを介して利用できないため、またはリソースの作成者が既知の識別子を実際の場所に変換する方法がないためである 。 Reference.identifierが実際にFHIRインスタンスとして公開されているものを指している必要はないが、FHIRインスタンスとして公開されることが期待されるビジネス概念を指している必要があり、そのインスタンスは参照で許可されているFHIRリソースタイプとなる。</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).
-参照の代わりに識別子が提供される場合、参照を処理するシステムは、識別子が使用されるビジネスコンテキストを理解している場合にのみ、識別子を参照に解決できる。これはグローバルな場合もあるが（たとえば、国民ID）、そうでない場合もある。このため、参照を操作するために説明されている便利なメカニズム（チェーン、インクルードなど）はどれも不可能であり、サーバーが参照を解決できると期待されるべきではない。サーバーは、識別子ベースの参照をそのまま受け入れ、解決したり、拒否したりする場合がある。CapabilityStatement.rest.resource.referencePolicyを参照。
-識別子とリテラル参照の両方が提供されている場合は、リテラル参照が優先される。リソースを処理するアプリケーションは、識別子がリテラル参照と一致することを確認できるが、確認することは必須ではない。
-論理参照をリテラル参照に変換するアプリケーションは、論理参照を存在させたままにするか、削除するかを選択できる。
-参照は、FHIRリソースとして表現できる可能性のある構造を指すことを目的としているが、実際のFHIRリソースインスタンスとして存在する必要はない。ただし、アプリケーションが参照のターゲットを実際に見つけたい場合を除く。識別子と呼ばれるコンテンツは、参照に許可されるリソースタイプの制限によって暗示される論理的な制約を満たす必要がある。たとえば、タイプがReference（Observation | DiagnosticReport）の場合、薬の処方箋の識別子を送信することは正当ではない。 Reference.identifierのユースケースの1つは、FHIR表現が存在しない状況である（タイプはReference（Any）である）。</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource　リソースの代替テキスト</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.
-リソース参照に加えてリソースを識別するプレーンテキストの説明。</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.
-これは通常、参照されるリソースのResource.textと同じではない。目的は、参照されているものを特定することであり、完全に説明することではない。</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1171,7 +864,32 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationAdministration.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1215,7 +933,7 @@
     <t>MedicationAdministration.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -1259,7 +977,7 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Condition|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|http://jpfhir.jp/fhir/core/StructureDefinition/JP_DiagnosticReport_Common)
 </t>
   </si>
   <si>
@@ -1418,10 +1136,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1440,10 +1155,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1455,15 +1167,13 @@
     <t>MedicationAdministration.dosage.method</t>
   </si>
   <si>
-    <t>How drug was administered　投与方法</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is intended to be or was introduced into or on the body.  This attribute will most often NOT be populated.  It is most commonly used for injections.  For example, Slow Push, Deep IV.
-薬物が体内に導入されることを意図している、または体内に導入された方法を示すコード化された値。ほとんどの場合、この属性は入力されないが、注射では最も一般的に使用される。たとえば、スロープッシュ（ゆっくり注射）、ディープIV（深部静脈注射）。</t>
-  </si>
-  <si>
-    <t>One of the reasons this attribute is not used often, is that the method is often pre-coordinated with the route and/or form of administration.  This means the codes used in route or form may pre-coordinate the method in the route code or the form code.  The implementation decision about what coding system to use for route or form code will determine how frequently the method code will be populated e.g. if route or form code pre-coordinate method code, then this attribute will not be populated often; if there is no pre-coordination then method code may  be used frequently.
-この属性がふつう使用されない理由の1つは、メソッドが管理のルートや形式と事前に調整されていることが多いためである。これは、ルートまたはフォーム（剤型）で使用されるコードが、ルートコードまたは剤型コードによってメソッドが事前に決まる可能性があることを意味している。ルートコードまたは剤型コードに使用するコーディングシステムに関する実装の決定により、メソッドコードが入力される頻度が決まる。ルートコードまたは剤型コードによってメソッドコードが事前に決まる場合、この属性はふつう入力されない。決まらない場合は、メソッドコードが使用される可能性がある。</t>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+  </si>
+  <si>
+    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
     <t>A coded concept describing the technique by which the medicine is administered.</t>
@@ -1478,10 +1188,232 @@
     <t>RXR-4-Administration Method</t>
   </si>
   <si>
+    <t>MedicationAdministration.dosage.method.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>unitDigit1</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。</t>
+  </si>
+  <si>
+    <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.30</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>unitDigit2</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.text</t>
+  </si>
+  <si>
+    <t>投与⽅法のテキスト表現</t>
+  </si>
+  <si>
+    <t>投与⽅法のテキスト表現。コードで指定できない場合、本要素で文字列として指定してもよい。</t>
+  </si>
+  <si>
+    <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
+  </si>
+  <si>
+    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.dose</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
 </t>
   </si>
   <si>
@@ -1492,151 +1424,24 @@
 1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
   </si>
   <si>
-    <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
 </t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x]</t>
-  </si>
-  <si>
-    <t>Ratio
-Quantity {SimpleQuantity}</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>
@@ -1655,6 +1460,26 @@
   </si>
   <si>
     <t>RXA-12-Administered Per (Time Unit)</t>
+  </si>
+  <si>
+    <t>rateRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
+</t>
+  </si>
+  <si>
+    <t>単位時間内での薬剤の容量</t>
+  </si>
+  <si>
+    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -1981,7 +1806,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AN69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1990,7 +1815,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.0859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.66015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2013,8 +1838,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4333,16 +4158,16 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4371,23 +4196,23 @@
         <v>197</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>209</v>
@@ -4405,16 +4230,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4425,14 +4250,14 @@
         <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>86</v>
@@ -4450,13 +4275,13 @@
         <v>193</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4485,10 +4310,10 @@
         <v>110</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4521,16 +4346,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4538,7 +4363,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4546,7 +4371,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
@@ -4558,18 +4383,20 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4618,10 +4445,10 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4630,19 +4457,19 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4650,18 +4477,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4673,16 +4500,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4720,43 +4547,43 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4764,7 +4591,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4772,7 +4599,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>79</v>
@@ -4784,23 +4611,21 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4848,7 +4673,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4866,13 +4691,13 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4880,7 +4705,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4888,7 +4713,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4900,18 +4725,20 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4960,10 +4787,10 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4972,19 +4799,19 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4992,11 +4819,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5012,20 +4839,18 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -5062,19 +4887,19 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5086,19 +4911,19 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5106,7 +4931,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5114,7 +4939,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
@@ -5126,23 +4951,19 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5190,7 +5011,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5202,19 +5023,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5222,18 +5043,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -5242,19 +5063,19 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5304,31 +5125,31 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5336,40 +5157,42 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>265</v>
+        <v>160</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5418,31 +5241,31 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>129</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5450,7 +5273,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5458,7 +5281,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5470,21 +5293,19 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5508,13 +5329,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5532,7 +5353,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5547,16 +5368,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5564,7 +5385,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5572,7 +5393,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5587,20 +5408,16 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5648,10 +5465,10 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -5663,16 +5480,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5680,7 +5497,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5691,7 +5508,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5700,23 +5517,19 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5740,13 +5553,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5764,13 +5577,13 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
@@ -5779,16 +5592,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5796,11 +5609,9 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5809,7 +5620,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5818,19 +5629,19 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5880,13 +5691,13 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -5895,24 +5706,24 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5920,7 +5731,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
@@ -5932,21 +5743,23 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5994,10 +5807,10 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -6009,16 +5822,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6026,7 +5839,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6037,7 +5850,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -6049,15 +5862,17 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>226</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>227</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -6106,31 +5921,31 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6138,11 +5953,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6161,16 +5976,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>324</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>232</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>159</v>
+        <v>327</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6208,19 +6023,19 @@
         <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6232,13 +6047,13 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>230</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6252,7 +6067,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6272,20 +6087,18 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6334,7 +6147,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6343,16 +6156,16 @@
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>129</v>
+        <v>334</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6366,7 +6179,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6386,20 +6199,18 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6424,13 +6235,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6448,7 +6259,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6460,13 +6271,13 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6480,18 +6291,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6500,19 +6311,19 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>323</v>
+        <v>159</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6562,25 +6373,25 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6594,41 +6405,43 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6676,19 +6489,19 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
@@ -6708,7 +6521,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6731,17 +6544,15 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6790,7 +6601,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6805,16 +6616,16 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6822,7 +6633,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6833,7 +6644,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6845,16 +6656,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>340</v>
+        <v>193</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6880,13 +6691,11 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6904,13 +6713,13 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
@@ -6922,13 +6731,13 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6936,7 +6745,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6944,7 +6753,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
@@ -6956,19 +6765,19 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>345</v>
+        <v>193</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>348</v>
+        <v>196</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6994,13 +6803,11 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7018,10 +6825,10 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -7033,16 +6840,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7050,7 +6857,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7061,7 +6868,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -7070,19 +6877,23 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>354</v>
+        <v>193</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="M45" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7106,13 +6917,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -7130,13 +6941,13 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
@@ -7145,16 +6956,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7162,7 +6973,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7185,13 +6996,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7242,7 +7053,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7260,7 +7071,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7274,7 +7085,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7300,10 +7111,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>159</v>
@@ -7344,19 +7155,19 @@
         <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7374,7 +7185,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7388,11 +7199,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7405,25 +7216,25 @@
         <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>131</v>
+        <v>367</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>159</v>
+        <v>370</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>160</v>
+        <v>371</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7460,19 +7271,17 @@
         <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7484,19 +7293,19 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>129</v>
+        <v>374</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7504,9 +7313,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7524,19 +7335,23 @@
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7560,13 +7375,11 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7584,13 +7397,13 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
@@ -7599,7 +7412,7 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>374</v>
@@ -7608,7 +7421,7 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7616,7 +7429,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7624,7 +7437,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
@@ -7636,16 +7449,16 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>376</v>
+        <v>264</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>377</v>
+        <v>265</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>378</v>
+        <v>266</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7696,10 +7509,10 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>375</v>
+        <v>267</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
@@ -7708,13 +7521,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>268</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7728,11 +7541,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7751,15 +7564,17 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>382</v>
+        <v>270</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7784,31 +7599,31 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7820,19 +7635,19 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>268</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7840,7 +7655,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7848,10 +7663,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7860,27 +7675,29 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>390</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>77</v>
@@ -7922,13 +7739,13 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
@@ -7937,24 +7754,24 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7974,23 +7791,21 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>399</v>
+        <v>264</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8038,7 +7853,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8053,16 +7868,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8070,7 +7885,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8081,7 +7896,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8090,21 +7905,21 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>408</v>
+        <v>106</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8152,13 +7967,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -8170,13 +7985,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8184,7 +7999,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8195,7 +8010,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8204,21 +8019,21 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>414</v>
+        <v>264</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8266,13 +8081,13 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
@@ -8281,16 +8096,16 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8298,7 +8113,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8318,19 +8133,23 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8390,19 +8209,19 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>423</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8410,9 +8229,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8430,19 +8251,23 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>226</v>
+        <v>367</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>227</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8466,13 +8291,11 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8490,31 +8313,31 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>229</v>
+        <v>373</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>230</v>
+        <v>374</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8522,18 +8345,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8545,17 +8368,15 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8604,25 +8425,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8636,11 +8457,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>364</v>
+        <v>156</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8653,26 +8474,24 @@
         <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>365</v>
+        <v>270</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8708,19 +8527,19 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>367</v>
+        <v>272</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8738,7 +8557,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8752,7 +8571,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8760,7 +8579,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>86</v>
@@ -8772,25 +8591,29 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>77</v>
@@ -8832,7 +8655,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8850,13 +8673,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8864,7 +8687,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8884,19 +8707,19 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8922,13 +8745,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8946,7 +8769,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8964,13 +8787,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8978,7 +8801,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8998,21 +8821,21 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9036,13 +8859,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9060,7 +8883,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9078,13 +8901,13 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9092,7 +8915,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9112,21 +8935,21 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9150,13 +8973,13 @@
         <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9174,7 +8997,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9192,13 +9015,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9206,7 +9029,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9226,21 +9049,23 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9288,7 +9113,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9306,13 +9131,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9320,7 +9145,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9340,19 +9165,23 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>227</v>
+        <v>429</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9400,7 +9229,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>229</v>
+        <v>433</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9412,19 +9241,19 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>230</v>
+        <v>434</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9432,18 +9261,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9455,16 +9284,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>131</v>
+        <v>437</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>232</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>233</v>
+        <v>439</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>159</v>
+        <v>440</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9502,43 +9331,43 @@
         <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>235</v>
+        <v>436</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>137</v>
+        <v>441</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>230</v>
+        <v>442</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>443</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9546,7 +9375,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9566,23 +9395,21 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9618,19 +9445,17 @@
         <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AB67" s="2"/>
       <c r="AC67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9648,13 +9473,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9662,9 +9487,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9673,36 +9500,34 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P68" t="s" s="2">
-        <v>477</v>
-      </c>
+      <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9722,13 +9547,13 @@
         <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>478</v>
+        <v>77</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9746,7 +9571,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9755,22 +9580,22 @@
         <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>455</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>482</v>
+        <v>129</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9778,7 +9603,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9789,7 +9614,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9798,21 +9623,21 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>226</v>
+        <v>458</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9860,13 +9685,13 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
@@ -9878,471 +9703,15 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>489</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X71" s="2"/>
-      <c r="Y71" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN73" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="467">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -534,7 +534,7 @@
   </si>
   <si>
     <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.
-ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバーからサーバーに伝播される間、一定のままである。</t>
+ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバからサーバに伝播される間、一定のままである。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
@@ -556,7 +556,7 @@
   </si>
   <si>
     <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.
-このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダーセット、またはその他の定義。</t>
+このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダセット、またはその他の定義。</t>
   </si>
   <si>
     <t>Event.instantiates</t>
@@ -634,7 +634,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>example</t>
@@ -728,7 +728,7 @@
     <t>処方する製剤を表すコード。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -768,12 +768,12 @@
 </t>
   </si>
   <si>
-    <t>Encounter or Episode of Care administered as part of　エンカウンター、または一部として実施されるケアエピソード</t>
+    <t>Encounter or Episode of Care administered as part of　Encounter、または一部として実施されるケアエピソード</t>
   </si>
   <si>
     <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.
 投薬が行われた患者と医療提供者の間の訪問、入院、またはその他の接触。
-受診情報や入院情報を表すエンカウンターへの参照。</t>
+受診情報や入院情報を表すEncounterへの参照。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1071,7 +1071,7 @@
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
 構造化された注釈情報がないシステムの場合、この要素によって作成者や作成時刻情報なしで単一の注釈を簡単に伝達できる。投与情報に付帯する潜在的な情報や修飾的な情報を伝えるために、この要素に叙述的な記述でそれらを含める必要がある場合がある。 
-*注釈は、計算可能な「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
+*注釈は、計算可能な「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1136,7 +1136,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1155,7 +1155,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1170,7 +1170,7 @@
     <t>投与方法</t>
   </si>
   <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
   </si>
   <si>
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
@@ -1244,7 +1244,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.method.coding.id</t>
@@ -1380,7 +1380,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -1398,7 +1398,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+    <t>ターミノロジ由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1440,8 +1440,8 @@
     <t>MedicationAdministration.dosage.rate[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio
-</t>
+    <t>Ratio
+Quantity {SimpleQuantity}</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>
@@ -1480,6 +1480,19 @@
   </si>
   <si>
     <t>RTO</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>投与速度(量/時間)を指定する</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -1806,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN69"/>
+  <dimension ref="A1:AN70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1839,7 +1852,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -9603,9 +9616,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9614,7 +9629,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9632,10 +9647,10 @@
         <v>459</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9685,33 +9700,147 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F70" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI69" t="s" s="2">
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -526,27 +526,303 @@
     <t>MedicationAdministration.identifier</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>External identifier 外部識別子</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.
-ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバからサーバに伝播される間、一定のままである。</t>
+    <t>外部から参照されるID</t>
+  </si>
+  <si>
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+  </si>
+  <si>
+    <t>これは業務IDであって、リソースに対するIDではない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.system</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.value</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダに対するID(MedicationRequestからの継承)</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。原則として投薬実施の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>orderInRp</t>
+  </si>
+  <si>
+    <t>同一RP番号（剤グループ）での薬剤の表記順</t>
+  </si>
+  <si>
+    <t>同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
+  </si>
+  <si>
+    <t>同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番を示すsystem値</t>
+  </si>
+  <si>
+    <t>剤グループ内番号の名前空間を識別するURI。固定値urn:oid:1.2.392.100495.20.3.82</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.82</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番</t>
+  </si>
+  <si>
+    <t>剤グループ内連番。</t>
   </si>
   <si>
     <t>MedicationAdministration.instantiates</t>
@@ -599,9 +875,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>患者への投与状況</t>
   </si>
   <si>
@@ -621,10 +894,6 @@
   </si>
   <si>
     <t>MedicationAdministration.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Reason administration not performed　実施されていない理由</t>
@@ -864,32 +1133,7 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationAdministration.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1194,9 +1438,6 @@
     <t>MedicationAdministration.dosage.method.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>MedicationAdministration.dosage.method.coding</t>
   </si>
   <si>
@@ -1214,10 +1455,6 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1819,7 +2056,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1851,7 +2088,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3478,7 +3715,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>79</v>
@@ -3493,16 +3730,16 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3540,16 +3777,14 @@
         <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>162</v>
@@ -3567,13 +3802,13 @@
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3584,18 +3819,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -3604,18 +3841,20 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3664,7 +3903,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3679,13 +3918,13 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3696,7 +3935,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3707,7 +3946,7 @@
         <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -3716,16 +3955,16 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3776,25 +4015,25 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3808,39 +4047,39 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3866,55 +4105,55 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3922,7 +4161,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3933,30 +4172,32 @@
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3980,13 +4221,13 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>77</v>
@@ -4004,13 +4245,13 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
@@ -4019,16 +4260,16 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4036,7 +4277,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4056,19 +4297,23 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4092,31 +4337,31 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4134,13 +4379,13 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4148,7 +4393,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4171,30 +4416,32 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>77</v>
@@ -4206,32 +4453,34 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AB21" s="2"/>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -4243,16 +4492,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4260,11 +4509,9 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4285,16 +4532,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4308,7 +4555,7 @@
         <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>77</v>
@@ -4320,34 +4567,34 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AF22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4359,16 +4606,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4376,7 +4623,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4384,7 +4631,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
@@ -4399,17 +4646,15 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4458,10 +4703,10 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4473,13 +4718,13 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>232</v>
@@ -4510,7 +4755,7 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>234</v>
@@ -4522,7 +4767,7 @@
         <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4572,7 +4817,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4587,13 +4832,13 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>240</v>
@@ -4604,9 +4849,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4627,16 +4874,16 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4686,7 +4933,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4701,13 +4948,13 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4718,7 +4965,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4726,7 +4973,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4738,20 +4985,18 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4800,10 +5045,10 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4812,19 +5057,19 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4832,11 +5077,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4852,18 +5097,20 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4900,19 +5147,19 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4924,19 +5171,19 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4944,7 +5191,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4961,22 +5208,26 @@
         <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5000,13 +5251,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -5024,7 +5275,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5036,19 +5287,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5056,18 +5307,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -5076,21 +5327,23 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5114,13 +5367,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5138,31 +5391,31 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5170,55 +5423,55 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>77</v>
@@ -5254,31 +5507,31 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5286,7 +5539,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5294,7 +5547,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5306,18 +5559,20 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5330,7 +5585,7 @@
         <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>77</v>
@@ -5342,13 +5597,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5366,7 +5621,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5381,16 +5636,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5398,7 +5653,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5406,7 +5661,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5421,13 +5676,13 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5478,10 +5733,10 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -5493,16 +5748,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5510,7 +5765,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5521,7 +5776,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5530,18 +5785,20 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5566,13 +5823,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5590,13 +5847,13 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
@@ -5605,16 +5862,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5622,18 +5879,20 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5645,16 +5904,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5704,7 +5963,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>162</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5719,24 +5978,24 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5759,20 +6018,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>310</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5820,7 +6075,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5832,19 +6087,19 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>315</v>
+        <v>181</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5852,11 +6107,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>182</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5875,16 +6130,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5922,19 +6177,19 @@
         <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5946,19 +6201,19 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>321</v>
+        <v>181</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5966,7 +6221,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>187</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5977,30 +6232,32 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>324</v>
+        <v>106</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6024,13 +6281,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -6048,13 +6305,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -6063,16 +6320,16 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>329</v>
+        <v>196</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6080,7 +6337,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6100,19 +6357,23 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>199</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6136,13 +6397,13 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6160,7 +6421,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>330</v>
+        <v>206</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6172,19 +6433,19 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>333</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>196</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6192,7 +6453,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>208</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6200,7 +6461,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
@@ -6212,31 +6473,35 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>264</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>77</v>
@@ -6272,7 +6537,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6284,19 +6549,19 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6304,18 +6569,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6324,19 +6589,19 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6350,7 +6615,7 @@
         <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>77</v>
@@ -6386,31 +6651,31 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6418,43 +6683,39 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>226</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6502,31 +6763,31 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6534,7 +6795,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>233</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6554,18 +6815,20 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>235</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6614,7 +6877,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6632,13 +6895,13 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>341</v>
+        <v>239</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6646,7 +6909,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6657,7 +6920,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6666,20 +6929,18 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6704,11 +6965,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6726,13 +6989,13 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
@@ -6741,16 +7004,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6758,7 +7021,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6769,7 +7032,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6778,20 +7041,18 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6816,11 +7077,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6838,13 +7101,13 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -6853,16 +7116,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>353</v>
+        <v>270</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6870,7 +7133,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6878,7 +7141,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
@@ -6887,26 +7150,24 @@
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>273</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6930,13 +7191,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -6954,10 +7215,10 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
@@ -6969,16 +7230,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>361</v>
+        <v>278</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>362</v>
+        <v>280</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6986,7 +7247,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>281</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6997,7 +7258,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7009,15 +7270,17 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7042,13 +7305,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7066,31 +7329,31 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7098,18 +7361,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>291</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7121,17 +7384,15 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7156,49 +7417,49 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7212,7 +7473,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7220,10 +7481,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7235,20 +7496,18 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>367</v>
+        <v>198</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7272,35 +7531,35 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
@@ -7309,16 +7568,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7326,17 +7585,17 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>86</v>
@@ -7351,20 +7610,18 @@
         <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>367</v>
+        <v>198</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>377</v>
+        <v>298</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
+        <v>299</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7390,9 +7647,11 @@
       <c r="W49" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X49" s="2"/>
+      <c r="X49" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>381</v>
+        <v>311</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7410,13 +7669,13 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
@@ -7425,16 +7684,16 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7442,7 +7701,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>312</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7450,7 +7709,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
@@ -7462,18 +7721,20 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7522,10 +7783,10 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
@@ -7534,19 +7795,19 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7554,18 +7815,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>321</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7577,16 +7838,16 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7624,43 +7885,43 @@
         <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7668,7 +7929,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7676,10 +7937,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7688,29 +7949,27 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>77</v>
@@ -7752,13 +8011,13 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
@@ -7770,13 +8029,13 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7784,7 +8043,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7792,7 +8051,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
@@ -7807,16 +8066,16 @@
         <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7866,10 +8125,10 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7881,16 +8140,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7898,7 +8157,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7909,7 +8168,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -7921,18 +8180,16 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>106</v>
+        <v>344</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>403</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7980,13 +8237,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -7995,16 +8252,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8012,7 +8269,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8032,21 +8289,19 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>408</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>409</v>
+        <v>179</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8094,7 +8349,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>411</v>
+        <v>180</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8106,19 +8361,19 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>412</v>
+        <v>181</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8126,18 +8381,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8146,23 +8401,21 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>415</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>416</v>
+        <v>183</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>184</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8210,31 +8463,31 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>420</v>
+        <v>186</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>421</v>
+        <v>181</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8242,44 +8495,42 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>367</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
+        <v>356</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>379</v>
+        <v>159</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8304,11 +8555,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8326,7 +8579,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8338,19 +8591,19 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>374</v>
+        <v>129</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8358,7 +8611,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8381,13 +8634,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>266</v>
+        <v>360</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8414,13 +8667,13 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8438,7 +8691,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>267</v>
+        <v>358</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8450,13 +8703,13 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>268</v>
+        <v>364</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8470,18 +8723,18 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8490,20 +8743,18 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>366</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>270</v>
+        <v>367</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8540,37 +8791,37 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AF59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>268</v>
+        <v>370</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8584,7 +8835,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8592,10 +8843,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8604,29 +8855,25 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>77</v>
@@ -8644,13 +8891,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8668,13 +8915,13 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
@@ -8683,16 +8930,16 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8700,7 +8947,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8711,7 +8958,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -8720,19 +8967,19 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>264</v>
+        <v>380</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8782,13 +9029,13 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
@@ -8797,24 +9044,24 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8834,20 +9081,22 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -8896,7 +9145,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8911,16 +9160,16 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8928,7 +9177,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8939,7 +9188,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -8948,21 +9197,21 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>264</v>
+        <v>398</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9010,13 +9259,13 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
@@ -9028,13 +9277,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9042,7 +9291,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9053,7 +9302,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9062,23 +9311,21 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9126,13 +9373,13 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
@@ -9141,16 +9388,16 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9158,7 +9405,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9178,23 +9425,19 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9242,7 +9485,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9254,19 +9497,19 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9274,7 +9517,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9297,17 +9540,15 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>437</v>
+        <v>177</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>438</v>
+        <v>178</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9356,7 +9597,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>436</v>
+        <v>180</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9365,22 +9606,22 @@
         <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>442</v>
+        <v>181</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9388,18 +9629,18 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9411,16 +9652,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>445</v>
+        <v>131</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>446</v>
+        <v>183</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>447</v>
+        <v>184</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>448</v>
+        <v>159</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9458,41 +9699,43 @@
         <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AB67" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>444</v>
+        <v>186</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>449</v>
+        <v>181</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9500,43 +9743,43 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>452</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>453</v>
+        <v>355</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>453</v>
+        <v>356</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9584,31 +9827,31 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>455</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>456</v>
+        <v>129</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9616,11 +9859,9 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9641,17 +9882,15 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>458</v>
+        <v>177</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9700,7 +9939,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9709,22 +9948,22 @@
         <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>441</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9732,7 +9971,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9743,7 +9982,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9755,16 +9994,16 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>462</v>
+        <v>198</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9790,13 +10029,11 @@
         <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
@@ -9814,13 +10051,13 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
@@ -9832,15 +10069,3103 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X71" s="2"/>
+      <c r="Y71" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AB75" s="2"/>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X76" s="2"/>
+      <c r="Y76" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN70" t="s" s="2">
+      <c r="O79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X84" s="2"/>
+      <c r="Y84" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AB94" s="2"/>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
@@ -1398,7 +1398,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
